--- a/proyecto/iteraciones/sprint-21/Burndown Sprint 21.xlsx
+++ b/proyecto/iteraciones/sprint-21/Burndown Sprint 21.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -661,70 +661,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>225</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>225</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>225</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>225</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>225</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>225</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>225</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>225</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>225</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>225</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>225</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103569664"/>
-        <c:axId val="103588992"/>
+        <c:axId val="92093824"/>
+        <c:axId val="92096000"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="103569664"/>
+        <c:axId val="92093824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +785,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103588992"/>
+        <c:crossAx val="92096000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +793,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103588992"/>
+        <c:axId val="92096000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103569664"/>
+        <c:crossAx val="92093824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1187,7 +1187,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1467,43 +1467,73 @@
         <v>11</v>
       </c>
       <c r="B3" s="24">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C3" s="25">
         <f t="shared" ref="C3:C5" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D3" s="27">
         <f t="shared" ref="D3:D5" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BL3)),$B3-(SUM($E3:$BL3)))</f>
-        <v>150</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>5</v>
+      </c>
+      <c r="F3" s="27">
+        <v>2</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27">
+        <v>6</v>
+      </c>
       <c r="J3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="L3" s="27">
+        <v>10</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27">
+        <v>12</v>
+      </c>
       <c r="Q3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="S3" s="27">
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <v>15</v>
+      </c>
+      <c r="U3" s="27">
+        <v>0</v>
+      </c>
+      <c r="V3" s="27">
+        <v>10</v>
+      </c>
+      <c r="W3" s="27">
+        <v>5</v>
+      </c>
       <c r="X3" s="27" t="s">
         <v>4</v>
       </c>
@@ -1564,35 +1594,65 @@
       </c>
       <c r="D4" s="27">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
       <c r="J4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="L4" s="27">
+        <v>5</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>4</v>
+      </c>
       <c r="Q4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="S4" s="27">
+        <v>6</v>
+      </c>
+      <c r="T4" s="27">
+        <v>0</v>
+      </c>
+      <c r="U4" s="27">
+        <v>0</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27">
+        <v>0</v>
+      </c>
       <c r="X4" s="27" t="s">
         <v>4</v>
       </c>
@@ -1653,35 +1713,65 @@
       </c>
       <c r="D5" s="27">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>10</v>
+      </c>
+      <c r="F5" s="27">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>5</v>
+      </c>
       <c r="J5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="L5" s="27">
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
+        <v>10</v>
+      </c>
+      <c r="O5" s="27">
+        <v>10</v>
+      </c>
+      <c r="P5" s="27">
+        <v>0</v>
+      </c>
       <c r="Q5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="S5" s="27">
+        <v>10</v>
+      </c>
+      <c r="T5" s="27">
+        <v>0</v>
+      </c>
+      <c r="U5" s="27">
+        <v>0</v>
+      </c>
+      <c r="V5" s="27">
+        <v>0</v>
+      </c>
+      <c r="W5" s="27">
+        <v>0</v>
+      </c>
       <c r="X5" s="27" t="s">
         <v>4</v>
       </c>
@@ -1761,255 +1851,255 @@
         <v>0</v>
       </c>
       <c r="B7" s="29">
-        <f>SUM(B3:B6)</f>
-        <v>225</v>
+        <f t="shared" ref="B7:AG7" si="2">SUM(B3:B6)</f>
+        <v>150</v>
       </c>
       <c r="C7" s="29">
-        <f>SUM(C3:C6)</f>
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="D7" s="29">
-        <f>SUM(D3:D6)</f>
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="E7" s="29">
-        <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="F7" s="29">
-        <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G7" s="29">
-        <f>SUM(G3:G6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="29">
-        <f>SUM(H3:H6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I7" s="29">
-        <f>SUM(I3:I6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="J7" s="29">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="29">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="29">
-        <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M7" s="29">
-        <f>SUM(M3:M6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="29">
-        <f>SUM(N3:N6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="O7" s="29">
-        <f>SUM(O3:O6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="P7" s="29">
-        <f>SUM(P3:P6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="Q7" s="29">
-        <f>SUM(Q3:Q6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="29">
-        <f>SUM(R3:R6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="29">
-        <f>SUM(S3:S6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="T7" s="29">
-        <f>SUM(T3:T6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="U7" s="29">
-        <f>SUM(U3:U6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="29">
-        <f>SUM(V3:V6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="W7" s="29">
-        <f>SUM(W3:W6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="X7" s="29">
-        <f>SUM(X3:X6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="29">
-        <f>SUM(Y3:Y6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <f>SUM(Z3:Z6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <f>SUM(AA3:AA6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="3">
-        <f>SUM(AB3:AB6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <f>SUM(AC3:AC6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD7" s="3">
-        <f>SUM(AD3:AD6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE7" s="3">
-        <f>SUM(AE3:AE6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF7" s="3">
-        <f>SUM(AF3:AF6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" s="3">
-        <f>SUM(AG3:AG6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7" s="3">
-        <f>SUM(AH3:AH6)</f>
+        <f t="shared" ref="AH7:BL7" si="3">SUM(AH3:AH6)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="3">
-        <f>SUM(AI3:AI6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="3">
-        <f>SUM(AJ3:AJ6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <f>SUM(AK3:AK6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL7" s="3">
-        <f>SUM(AL3:AL6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM7" s="3">
-        <f>SUM(AM3:AM6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN7" s="3">
-        <f>SUM(AN3:AN6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO7" s="3">
-        <f>SUM(AO3:AO6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AP7" s="3">
-        <f>SUM(AP3:AP6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="3">
-        <f>SUM(AQ3:AQ6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR7" s="3">
-        <f>SUM(AR3:AR6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS7" s="3">
-        <f>SUM(AS3:AS6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT7" s="3">
-        <f>SUM(AT3:AT6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU7" s="3">
-        <f>SUM(AU3:AU6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV7" s="3">
-        <f>SUM(AV3:AV6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW7" s="3">
-        <f>SUM(AW3:AW6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX7" s="3">
-        <f>SUM(AX3:AX6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY7" s="3">
-        <f>SUM(AY3:AY6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AZ7" s="3">
-        <f>SUM(AZ3:AZ6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BA7" s="3">
-        <f>SUM(BA3:BA6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BB7" s="3">
-        <f>SUM(BB3:BB6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BC7" s="3">
-        <f>SUM(BC3:BC6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD7" s="3">
-        <f>SUM(BD3:BD6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BE7" s="3">
-        <f>SUM(BE3:BE6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BF7" s="3">
-        <f>SUM(BF3:BF6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG7" s="3">
-        <f>SUM(BG3:BG6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BH7" s="3">
-        <f>SUM(BH3:BH6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BI7" s="3">
-        <f>SUM(BI3:BI6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BJ7" s="3">
-        <f>SUM(BJ3:BJ6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BK7" s="3">
-        <f>SUM(BK3:BK6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BL7" s="3">
-        <f>SUM(BL3:BL6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2139,83 +2229,83 @@
         <v>21</v>
       </c>
       <c r="F9" s="18">
-        <f t="shared" ref="F9:BL9" si="2">E9-F8</f>
+        <f t="shared" ref="F9:BL9" si="4">E9-F8</f>
         <v>20</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="J9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="R9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="T9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="U9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="V9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="W9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="X9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Y9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Z9" s="6">
@@ -2223,155 +2313,155 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AB9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AI9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AJ9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AK9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AL9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AM9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AN9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AO9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AP9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AR9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AS9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AT9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AU9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AV9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AW9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AX9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AY9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AZ9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BA9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BB9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BC9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BD9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BE9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BF9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BG9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BH9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BI9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BJ9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BK9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BL9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2385,247 +2475,247 @@
       </c>
       <c r="D10" s="16">
         <f>C7</f>
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E10" s="16">
         <f>$C$7-SUM(E$3:E$6)</f>
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="F10" s="16">
-        <f>E10-SUM(F3:F6)</f>
-        <v>225</v>
+        <f t="shared" ref="F10:AK10" si="5">E10-SUM(F3:F6)</f>
+        <v>123</v>
       </c>
       <c r="G10" s="16">
-        <f>F10-SUM(G3:G6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
       <c r="H10" s="16">
-        <f>G10-SUM(H3:H6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>113</v>
       </c>
       <c r="I10" s="16">
-        <f>H10-SUM(I3:I6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="J10" s="16">
-        <f>I10-SUM(J3:J6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="K10" s="16">
-        <f>J10-SUM(K3:K6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="L10" s="16">
-        <f>K10-SUM(L3:L6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>87</v>
       </c>
       <c r="M10" s="16">
-        <f>L10-SUM(M3:M6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>87</v>
       </c>
       <c r="N10" s="16">
-        <f>M10-SUM(N3:N6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>77</v>
       </c>
       <c r="O10" s="16">
-        <f>N10-SUM(O3:O6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="P10" s="16">
-        <f>O10-SUM(P3:P6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="Q10" s="16">
-        <f>P10-SUM(Q3:Q6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="R10" s="16">
-        <f>Q10-SUM(R3:R6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="S10" s="16">
-        <f>R10-SUM(S3:S6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="T10" s="16">
-        <f>S10-SUM(T3:T6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="U10" s="16">
-        <f>T10-SUM(U3:U6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="V10" s="16">
-        <f>U10-SUM(V3:V6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="W10" s="16">
-        <f>V10-SUM(W3:W6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="X10" s="16">
-        <f>W10-SUM(X3:X6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="Y10" s="16">
-        <f>X10-SUM(Y3:Y6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="Z10" s="5">
-        <f>Y10-SUM(Z3:Z6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AA10" s="5">
-        <f>Z10-SUM(AA3:AA6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AB10" s="5">
-        <f>AA10-SUM(AB3:AB6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AC10" s="5">
-        <f>AB10-SUM(AC3:AC6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AD10" s="5">
-        <f>AC10-SUM(AD3:AD6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AE10" s="5">
-        <f>AD10-SUM(AE3:AE6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AF10" s="5">
-        <f>AE10-SUM(AF3:AF6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AG10" s="5">
-        <f>AF10-SUM(AG3:AG6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AH10" s="5">
-        <f>AG10-SUM(AH3:AH6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AI10" s="5">
-        <f>AH10-SUM(AI3:AI6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AJ10" s="5">
-        <f>AI10-SUM(AJ3:AJ6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AK10" s="5">
-        <f>AJ10-SUM(AK3:AK6)</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AL10" s="5">
-        <f>AK10-SUM(AL3:AL6)</f>
-        <v>225</v>
+        <f t="shared" ref="AL10:BL10" si="6">AK10-SUM(AL3:AL6)</f>
+        <v>5</v>
       </c>
       <c r="AM10" s="5">
-        <f>AL10-SUM(AM3:AM6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AN10" s="5">
-        <f>AM10-SUM(AN3:AN6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AO10" s="5">
-        <f>AN10-SUM(AO3:AO6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AP10" s="5">
-        <f>AO10-SUM(AP3:AP6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AQ10" s="5">
-        <f>AP10-SUM(AQ3:AQ6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AR10" s="5">
-        <f>AQ10-SUM(AR3:AR6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AS10" s="5">
-        <f>AR10-SUM(AS3:AS6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AT10" s="5">
-        <f>AS10-SUM(AT3:AT6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AU10" s="5">
-        <f>AT10-SUM(AU3:AU6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AV10" s="5">
-        <f>AU10-SUM(AV3:AV6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AW10" s="5">
-        <f>AV10-SUM(AW3:AW6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AX10" s="5">
-        <f>AW10-SUM(AX3:AX6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AY10" s="5">
-        <f>AX10-SUM(AY3:AY6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AZ10" s="5">
-        <f>AY10-SUM(AZ3:AZ6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BA10" s="5">
-        <f>AZ10-SUM(BA3:BA6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BB10" s="5">
-        <f>BA10-SUM(BB3:BB6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BC10" s="5">
-        <f>BB10-SUM(BC3:BC6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BD10" s="5">
-        <f>BC10-SUM(BD3:BD6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BE10" s="5">
-        <f>BD10-SUM(BE3:BE6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BF10" s="5">
-        <f>BE10-SUM(BF3:BF6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BG10" s="5">
-        <f>BF10-SUM(BG3:BG6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BH10" s="5">
-        <f>BG10-SUM(BH3:BH6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BI10" s="5">
-        <f>BH10-SUM(BI3:BI6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BJ10" s="5">
-        <f>BI10-SUM(BJ3:BJ6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BK10" s="5">
-        <f>BJ10-SUM(BK3:BK6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BL10" s="5">
-        <f>BK10-SUM(BL3:BL6)</f>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:66" ht="18" x14ac:dyDescent="0.25">
